--- a/EDA_NFL_Punt_Analytics.xlsx
+++ b/EDA_NFL_Punt_Analytics.xlsx
@@ -5,44 +5,49 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav\Desktop\Work\Working directory\NFL Punt Analytics [EXCEL]\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav\Documents\GitHub\Excel-Dashboard-NFL-Punt-Concussion-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" r:id="rId1"/>
     <sheet name="Dashboard" sheetId="11" r:id="rId2"/>
     <sheet name="Video Review Data" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="13" r:id="rId4"/>
-    <sheet name="Player Activity Derived" sheetId="6" r:id="rId5"/>
-    <sheet name="Partner Activity" sheetId="8" r:id="rId6"/>
-    <sheet name="Primary Impact Type" sheetId="3" r:id="rId7"/>
-    <sheet name="Impact Vs Activity" sheetId="7" r:id="rId8"/>
-    <sheet name="Daily Concussion Rates" sheetId="10" r:id="rId9"/>
-    <sheet name="game_data" sheetId="9" r:id="rId10"/>
+    <sheet name="pivot_game_review" sheetId="14" r:id="rId4"/>
+    <sheet name="game_review_data" sheetId="13" r:id="rId5"/>
+    <sheet name="Player Activity Derived" sheetId="6" r:id="rId6"/>
+    <sheet name="Partner Activity" sheetId="8" r:id="rId7"/>
+    <sheet name="Primary Impact Type" sheetId="3" r:id="rId8"/>
+    <sheet name="Impact Vs Activity" sheetId="7" r:id="rId9"/>
+    <sheet name="Daily Concussion Rate" sheetId="16" r:id="rId10"/>
+    <sheet name="game_data" sheetId="9" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_EDA_NFL_Punt_Analytics.xlsxTable11" hidden="1">[1]!Table1</definedName>
-    <definedName name="_xlcn.WorksheetConnection_VideoReviewDataA1J381" hidden="1">'Video Review Data'!$A$1:$J$38</definedName>
+    <definedName name="_xlcn.WorksheetConnection_EDA_NFL_Punt_Analytics.xlsxTable1" hidden="1">[1]!Table1</definedName>
+    <definedName name="_xlcn.WorksheetConnection_VideoReviewDataA1J38" hidden="1">'Video Review Data'!$A$1:$J$38</definedName>
+    <definedName name="game_data">game_data!$A$1:$R$667</definedName>
     <definedName name="Slicer_Primary_Impact_Type">#N/A</definedName>
     <definedName name="Slicer_Season_Year">#N/A</definedName>
+    <definedName name="total_day">#REF!</definedName>
+    <definedName name="total_days">'Daily Concussion Rate'!$A$3:$B$10</definedName>
+    <definedName name="vidrev_data">game_review_data!$A$3:$B$40</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId12"/>
-    <pivotCache cacheId="1" r:id="rId13"/>
+    <pivotCache cacheId="0" r:id="rId13"/>
+    <pivotCache cacheId="1" r:id="rId14"/>
+    <pivotCache cacheId="2" r:id="rId15"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId14"/>
-        <x14:slicerCache r:id="rId15"/>
+        <x14:slicerCache r:id="rId16"/>
+        <x14:slicerCache r:id="rId17"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -78,7 +83,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_EDA_NFL_Punt_Analytics.xlsxTable11"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_EDA_NFL_Punt_Analytics.xlsxTable1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -87,7 +92,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_VideoReviewDataA1J381"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_VideoReviewDataA1J38"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -96,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7869" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7895" uniqueCount="471">
   <si>
     <t>Topic</t>
   </si>
@@ -1507,6 +1512,9 @@
   <si>
     <t>Count of GameKey</t>
   </si>
+  <si>
+    <t>Mean</t>
+  </si>
 </sst>
 </file>
 
@@ -2105,7 +2113,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3842,7 +3849,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3877,9 +3883,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -3962,7 +3966,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4269,7 +4272,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4340,7 +4342,6 @@
         <c:idx val="3"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
@@ -4349,9 +4350,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -4396,53 +4395,10 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4480,9 +4436,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -4586,7 +4540,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4877,7 +4830,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4932,7 +4884,6 @@
         <c:idx val="2"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
@@ -4941,9 +4892,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -4988,53 +4937,10 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5072,9 +4978,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -5178,7 +5082,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5481,7 +5384,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5520,7 +5422,6 @@
         <c:idx val="1"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
@@ -5529,9 +5430,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -5576,53 +5475,10 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5660,9 +5516,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -5766,7 +5620,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6057,7 +5910,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6233,7 +6085,6 @@
         <c:idx val="12"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
@@ -6242,9 +6093,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -6252,7 +6101,6 @@
         <c:idx val="13"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
@@ -6261,9 +6109,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -6271,7 +6117,6 @@
         <c:idx val="14"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
@@ -6280,9 +6125,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -6290,7 +6133,6 @@
         <c:idx val="15"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
@@ -6299,9 +6141,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -6346,53 +6186,10 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -6430,9 +6227,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -6477,53 +6272,10 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -6561,9 +6313,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -6608,53 +6358,10 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -6692,9 +6399,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -6739,58 +6444,10 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -6828,9 +6485,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -6934,7 +6589,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7093,7 +6747,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7252,7 +6905,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7408,7 +7060,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7596,7 +7247,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11960,7 +11610,133 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Windows User" refreshedDate="43503.398989583337" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="666">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Windows User" refreshedDate="43510.482524421299" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="37">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A3:R40" sheet="game_review_data"/>
+  </cacheSource>
+  <cacheFields count="18">
+    <cacheField name="GameKey" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="618"/>
+    </cacheField>
+    <cacheField name="PlayID" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="183" maxValue="3746" count="35">
+        <n v="3129"/>
+        <n v="2587"/>
+        <n v="538"/>
+        <n v="1212"/>
+        <n v="1045"/>
+        <n v="905"/>
+        <n v="2342"/>
+        <n v="3663"/>
+        <n v="3509"/>
+        <n v="3468"/>
+        <n v="1976"/>
+        <n v="3278"/>
+        <n v="2902"/>
+        <n v="3609"/>
+        <n v="2918"/>
+        <n v="3746"/>
+        <n v="1526"/>
+        <n v="2341"/>
+        <n v="2667"/>
+        <n v="3630"/>
+        <n v="2489"/>
+        <n v="2764"/>
+        <n v="183"/>
+        <n v="1088"/>
+        <n v="3312"/>
+        <n v="1262"/>
+        <n v="2792"/>
+        <n v="2072"/>
+        <n v="1988"/>
+        <n v="1683"/>
+        <n v="1407"/>
+        <n v="733"/>
+        <n v="2208"/>
+        <n v="602"/>
+        <n v="978"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Season_Type" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Week" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="16" count="14">
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="9"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="14"/>
+        <n v="15"/>
+        <n v="16"/>
+        <n v="1"/>
+        <n v="8"/>
+        <n v="13"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Game_Date" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="42593" maxValue="43086"/>
+    </cacheField>
+    <cacheField name="Game_Day" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Thursday"/>
+        <s v="Saturday"/>
+        <s v="Friday"/>
+        <s v="Sunday"/>
+        <s v="Monday"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Game_Site" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Start_Time" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.5" maxValue="0.85416666666666663"/>
+    </cacheField>
+    <cacheField name="Home_Team" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="HomeTeamCode" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Visit_Team" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="VisitTeamCode" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Stadium" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="StadiumType" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="Turf" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="GameWeather" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="Temperature" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="OutdoorWeather" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Windows User" refreshedDate="43510.492155208332" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="666">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:R667" sheet="game_data"/>
   </cacheSource>
@@ -12485,6 +12261,751 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="37">
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="Pre"/>
+    <x v="0"/>
+    <n v="42593"/>
+    <x v="0"/>
+    <s v="Chicago"/>
+    <n v="0.79166666666666663"/>
+    <s v="Chicago Bears"/>
+    <s v="CHI"/>
+    <s v="Denver Broncos"/>
+    <s v="DEN"/>
+    <s v="Soldier Field"/>
+    <s v="Outdoor"/>
+    <s v="Grass"/>
+    <s v="Partly Cloudy, Chance of Rain 80%"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="1"/>
+    <s v="Pre"/>
+    <x v="1"/>
+    <n v="42602"/>
+    <x v="1"/>
+    <s v="Nashville"/>
+    <n v="0.58333333333333337"/>
+    <s v="Tennessee Titans"/>
+    <s v="TEN"/>
+    <s v="Carolina Panthers"/>
+    <s v="CAR"/>
+    <s v="Nissan Stadium"/>
+    <s v="Outdoors"/>
+    <s v="Grass"/>
+    <s v="Cloudy"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="2"/>
+    <s v="Pre"/>
+    <x v="1"/>
+    <n v="42601"/>
+    <x v="2"/>
+    <s v="Landover"/>
+    <n v="0.8125"/>
+    <s v="Washington Redskins"/>
+    <s v="WAS"/>
+    <s v="New York Jets"/>
+    <s v="NYJ"/>
+    <s v="FedExField"/>
+    <s v="Outside"/>
+    <s v="Grass"/>
+    <s v="Sunny"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="45"/>
+    <x v="3"/>
+    <s v="Pre"/>
+    <x v="2"/>
+    <n v="42609"/>
+    <x v="1"/>
+    <s v="East Rutherford"/>
+    <n v="0.8125"/>
+    <s v="New York Jets"/>
+    <s v="NYJ"/>
+    <s v="New York Giants"/>
+    <s v="NYG"/>
+    <s v="MetLife"/>
+    <s v="Outdoor"/>
+    <s v="FieldTurf"/>
+    <s v="Clear"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="54"/>
+    <x v="4"/>
+    <s v="Pre"/>
+    <x v="3"/>
+    <n v="42614"/>
+    <x v="0"/>
+    <s v="Charlotte"/>
+    <n v="0.8125"/>
+    <s v="Carolina Panthers"/>
+    <s v="CAR"/>
+    <s v="Pittsburgh Steelers"/>
+    <s v="PIT"/>
+    <s v="Bank of America Stadium"/>
+    <s v="Outdoors "/>
+    <s v="Natural Grass "/>
+    <s v="Cloudy"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="60"/>
+    <x v="5"/>
+    <s v="Pre"/>
+    <x v="3"/>
+    <n v="42614"/>
+    <x v="0"/>
+    <s v="Detroit"/>
+    <n v="0.8125"/>
+    <s v="Detroit Lions"/>
+    <s v="DET"/>
+    <s v="Buffalo Bills"/>
+    <s v="BUF"/>
+    <s v="Ford Field"/>
+    <s v="Indoors"/>
+    <s v="Field Turf"/>
+    <s v="Controlled Climate"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="144"/>
+    <x v="6"/>
+    <s v="Reg"/>
+    <x v="4"/>
+    <n v="42659"/>
+    <x v="3"/>
+    <s v="Orchard Park"/>
+    <n v="0.54166666666666663"/>
+    <s v="Buffalo Bills"/>
+    <s v="BUF"/>
+    <s v="San Francisco 49ers"/>
+    <s v="SF"/>
+    <s v="New Era Field"/>
+    <s v="Outdoors"/>
+    <s v="A-Turf Titan"/>
+    <s v="Mostly cloudy"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="149"/>
+    <x v="7"/>
+    <s v="Reg"/>
+    <x v="4"/>
+    <n v="42659"/>
+    <x v="3"/>
+    <s v="New Orleans"/>
+    <n v="0.5"/>
+    <s v="New Orleans Saints"/>
+    <s v="NO"/>
+    <s v="Carolina Panthers"/>
+    <s v="CAR"/>
+    <s v="Mercedes-Benz Superdome"/>
+    <s v="Indoors"/>
+    <s v="UBU Speed Series-S5-M"/>
+    <s v="Partly Cloudy"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="189"/>
+    <x v="8"/>
+    <s v="Reg"/>
+    <x v="5"/>
+    <n v="42680"/>
+    <x v="3"/>
+    <s v="Kansas City"/>
+    <n v="0.5"/>
+    <s v="Kansas City Chiefs"/>
+    <s v="KC"/>
+    <s v="Jacksonville Jaguars"/>
+    <s v="JAX"/>
+    <s v="Arrowhead Stadium"/>
+    <s v="Outdoor"/>
+    <s v="Natural Grass"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="218"/>
+    <x v="9"/>
+    <s v="Reg"/>
+    <x v="6"/>
+    <n v="42694"/>
+    <x v="3"/>
+    <s v="Indianapolis"/>
+    <n v="0.54166666666666663"/>
+    <s v="Indianapolis Colts"/>
+    <s v="IND"/>
+    <s v="Tennessee Titans"/>
+    <s v="TEN"/>
+    <s v="Lucas Oil"/>
+    <s v="Retr. Roof - Closed"/>
+    <s v="Artificial"/>
+    <s v="Partly Cloudy"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="231"/>
+    <x v="10"/>
+    <s v="Reg"/>
+    <x v="7"/>
+    <n v="42701"/>
+    <x v="3"/>
+    <s v="Baltimore"/>
+    <n v="0.54166666666666663"/>
+    <s v="Baltimore Ravens"/>
+    <s v="BLT"/>
+    <s v="Cincinnati Bengals"/>
+    <s v="CIN"/>
+    <s v="M&amp;T Bank Stadium"/>
+    <s v="Outdoor"/>
+    <s v="Natural Grass"/>
+    <s v="Sunny"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="234"/>
+    <x v="11"/>
+    <s v="Reg"/>
+    <x v="7"/>
+    <n v="42701"/>
+    <x v="3"/>
+    <s v="Cleveland"/>
+    <n v="0.54166666666666663"/>
+    <s v="Cleveland Browns"/>
+    <s v="CLV"/>
+    <s v="New York Giants"/>
+    <s v="NYG"/>
+    <s v="FirstEnergy Stadium"/>
+    <s v="Outdoor"/>
+    <s v="Grass"/>
+    <s v="Sunny"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="266"/>
+    <x v="12"/>
+    <s v="Reg"/>
+    <x v="8"/>
+    <n v="42715"/>
+    <x v="3"/>
+    <s v="Philadelphia"/>
+    <n v="0.54166666666666663"/>
+    <s v="Philadelphia Eagles"/>
+    <s v="PHI"/>
+    <s v="Washington Redskins"/>
+    <s v="WAS"/>
+    <s v="Lincoln Financial Field"/>
+    <s v="Outdoor"/>
+    <s v="Grass"/>
+    <s v="Cloudy"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="274"/>
+    <x v="13"/>
+    <s v="Reg"/>
+    <x v="9"/>
+    <n v="42719"/>
+    <x v="0"/>
+    <s v="Seattle"/>
+    <n v="0.72569444444444453"/>
+    <s v="Seattle Seahawks"/>
+    <s v="SEA"/>
+    <s v="Los Angeles Rams"/>
+    <s v="LA"/>
+    <s v="CenturyLink Field"/>
+    <s v="Outdoor"/>
+    <s v="FieldTurf"/>
+    <s v="Partly Cloudy"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="280"/>
+    <x v="14"/>
+    <s v="Reg"/>
+    <x v="9"/>
+    <n v="42722"/>
+    <x v="3"/>
+    <s v="Houston"/>
+    <n v="0.5"/>
+    <s v="Houston Texans"/>
+    <s v="HST"/>
+    <s v="Jacksonville Jaguars"/>
+    <s v="JAX"/>
+    <s v="NRG Stadium"/>
+    <s v="Retractable Roof"/>
+    <s v="Artificial"/>
+    <s v="Cloudy"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="280"/>
+    <x v="15"/>
+    <s v="Reg"/>
+    <x v="9"/>
+    <n v="42722"/>
+    <x v="3"/>
+    <s v="Houston"/>
+    <n v="0.5"/>
+    <s v="Houston Texans"/>
+    <s v="HST"/>
+    <s v="Jacksonville Jaguars"/>
+    <s v="JAX"/>
+    <s v="NRG Stadium"/>
+    <s v="Retractable Roof"/>
+    <s v="Artificial"/>
+    <s v="Cloudy"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="281"/>
+    <x v="16"/>
+    <s v="Reg"/>
+    <x v="9"/>
+    <n v="42722"/>
+    <x v="3"/>
+    <s v="Kansas City"/>
+    <n v="0.5"/>
+    <s v="Kansas City Chiefs"/>
+    <s v="KC"/>
+    <s v="Tennessee Titans"/>
+    <s v="TEN"/>
+    <s v="Arrowhead Stadium"/>
+    <s v="Outdoor"/>
+    <s v="Natural Grass"/>
+    <s v="Sunny"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="289"/>
+    <x v="17"/>
+    <s v="Reg"/>
+    <x v="9"/>
+    <n v="42723"/>
+    <x v="4"/>
+    <s v="Landover"/>
+    <n v="0.85416666666666663"/>
+    <s v="Washington Redskins"/>
+    <s v="WAS"/>
+    <s v="Carolina Panthers"/>
+    <s v="CAR"/>
+    <s v="FedExField"/>
+    <s v="Outdoor"/>
+    <s v="Grass"/>
+    <s v="Clear"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="296"/>
+    <x v="18"/>
+    <s v="Reg"/>
+    <x v="10"/>
+    <n v="42728"/>
+    <x v="1"/>
+    <s v="Jacksonville"/>
+    <n v="0.54166666666666663"/>
+    <s v="Jacksonville Jaguars"/>
+    <s v="JAX"/>
+    <s v="Tennessee Titans"/>
+    <s v="TEN"/>
+    <s v="EverBank Field"/>
+    <s v="Open"/>
+    <s v="Grass"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="357"/>
+    <x v="19"/>
+    <s v="Pre"/>
+    <x v="1"/>
+    <n v="42964"/>
+    <x v="0"/>
+    <s v="Miami Gardens"/>
+    <n v="0.79166666666666663"/>
+    <s v="Miami Dolphins"/>
+    <s v="MIA"/>
+    <s v="Baltimore Ravens"/>
+    <s v="BLT"/>
+    <s v="Hard Rock Stadium"/>
+    <s v="Outdoor"/>
+    <s v="Natural Grass"/>
+    <s v="Partly Cloudy"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="364"/>
+    <x v="20"/>
+    <s v="Pre"/>
+    <x v="1"/>
+    <n v="42966"/>
+    <x v="1"/>
+    <s v="Landover"/>
+    <n v="0.8125"/>
+    <s v="Washington Redskins"/>
+    <s v="WAS"/>
+    <s v="Green Bay Packers"/>
+    <s v="GB"/>
+    <s v="FedExField"/>
+    <s v="Outdoors"/>
+    <s v="Grass"/>
+    <s v="Sunny"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="364"/>
+    <x v="21"/>
+    <s v="Pre"/>
+    <x v="1"/>
+    <n v="42966"/>
+    <x v="1"/>
+    <s v="Landover"/>
+    <n v="0.8125"/>
+    <s v="Washington Redskins"/>
+    <s v="WAS"/>
+    <s v="Green Bay Packers"/>
+    <s v="GB"/>
+    <s v="FedExField"/>
+    <s v="Outdoors"/>
+    <s v="Grass"/>
+    <s v="Sunny"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="384"/>
+    <x v="22"/>
+    <s v="Pre"/>
+    <x v="3"/>
+    <n v="42978"/>
+    <x v="0"/>
+    <s v="Atlanta"/>
+    <n v="0.79166666666666663"/>
+    <s v="Atlanta Falcons"/>
+    <s v="ATL"/>
+    <s v="Jacksonville Jaguars"/>
+    <s v="JAX"/>
+    <s v="Mercedes-Benz Stadium"/>
+    <s v="Dome"/>
+    <s v="FieldTurf 360"/>
+    <s v="Clear"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="392"/>
+    <x v="23"/>
+    <s v="Pre"/>
+    <x v="3"/>
+    <n v="42978"/>
+    <x v="0"/>
+    <s v="Kansas City"/>
+    <n v="0.8125"/>
+    <s v="Kansas City Chiefs"/>
+    <s v="KC"/>
+    <s v="Tennessee Titans"/>
+    <s v="TEN"/>
+    <s v="Arrowhead Stadium"/>
+    <s v="Outdoor"/>
+    <s v="Natural Grass"/>
+    <s v="Sunny"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="397"/>
+    <x v="16"/>
+    <s v="Pre"/>
+    <x v="3"/>
+    <n v="42978"/>
+    <x v="0"/>
+    <s v="Santa Clara"/>
+    <n v="0.79166666666666663"/>
+    <s v="San Francisco 49ers"/>
+    <s v="SF"/>
+    <s v="Los Angeles Chargers"/>
+    <s v="LAC"/>
+    <s v="Levis Stadium"/>
+    <s v="Outdoor"/>
+    <s v="Natural Grass"/>
+    <s v="Clear"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="399"/>
+    <x v="24"/>
+    <s v="Reg"/>
+    <x v="11"/>
+    <n v="42985"/>
+    <x v="0"/>
+    <s v="Foxborough"/>
+    <n v="0.85416666666666663"/>
+    <s v="New England Patriots"/>
+    <s v="NE"/>
+    <s v="Kansas City Chiefs"/>
+    <s v="KC"/>
+    <s v="Gillette Stadium"/>
+    <s v="Outdoor"/>
+    <s v="Field Turf"/>
+    <s v="Clear and warm"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="414"/>
+    <x v="25"/>
+    <s v="Reg"/>
+    <x v="11"/>
+    <n v="42989"/>
+    <x v="4"/>
+    <s v="Denver"/>
+    <n v="0.84722222222222221"/>
+    <s v="Denver Broncos"/>
+    <s v="DEN"/>
+    <s v="Los Angeles Chargers"/>
+    <s v="LAC"/>
+    <s v="Sports Authority Field at Mile High"/>
+    <s v="Outdoor"/>
+    <s v="Grass"/>
+    <s v="Mostly cloudy"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="448"/>
+    <x v="26"/>
+    <s v="Reg"/>
+    <x v="2"/>
+    <n v="43009"/>
+    <x v="3"/>
+    <s v="Wembley"/>
+    <n v="0.60416666666666663"/>
+    <s v="Miami Dolphins"/>
+    <s v="MIA"/>
+    <s v="New Orleans Saints"/>
+    <s v="NO"/>
+    <s v="Wembley Stadium"/>
+    <s v="Outdoor"/>
+    <s v="Grass"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="473"/>
+    <x v="27"/>
+    <s v="Reg"/>
+    <x v="3"/>
+    <n v="43016"/>
+    <x v="3"/>
+    <s v="Oakland"/>
+    <n v="0.54513888888888895"/>
+    <s v="Oakland Raiders"/>
+    <s v="OAK"/>
+    <s v="Baltimore Ravens"/>
+    <s v="BLT"/>
+    <s v="Oakland-Alameda County Coliseum"/>
+    <s v="Outdoor"/>
+    <s v="Natural Grass"/>
+    <s v="Sunny"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="506"/>
+    <x v="28"/>
+    <s v="Reg"/>
+    <x v="12"/>
+    <n v="43034"/>
+    <x v="0"/>
+    <s v="Baltimore"/>
+    <n v="0.85069444444444453"/>
+    <s v="Baltimore Ravens"/>
+    <s v="BLT"/>
+    <s v="Miami Dolphins"/>
+    <s v="MIA"/>
+    <s v="M&amp;T Bank Stadium"/>
+    <s v="Outdoor"/>
+    <s v="Natural Grass"/>
+    <s v="Partly Cloudy"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="553"/>
+    <x v="29"/>
+    <s v="Reg"/>
+    <x v="6"/>
+    <n v="43058"/>
+    <x v="3"/>
+    <s v="East Rutherford"/>
+    <n v="0.54166666666666663"/>
+    <s v="New York Giants"/>
+    <s v="NYG"/>
+    <s v="Kansas City Chiefs"/>
+    <s v="KC"/>
+    <s v="MetLife Stadium"/>
+    <n v="0"/>
+    <s v="UBU Speed Series-S5-M"/>
+    <s v="Mostly cloudy"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="567"/>
+    <x v="30"/>
+    <s v="Reg"/>
+    <x v="7"/>
+    <n v="43065"/>
+    <x v="3"/>
+    <s v="East Rutherford"/>
+    <n v="0.54166666666666663"/>
+    <s v="New York Jets"/>
+    <s v="NYJ"/>
+    <s v="Carolina Panthers"/>
+    <s v="CAR"/>
+    <s v="MetLife"/>
+    <s v="Outdoor"/>
+    <s v="FieldTurf"/>
+    <s v="Sunny"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="585"/>
+    <x v="31"/>
+    <s v="Reg"/>
+    <x v="13"/>
+    <n v="43072"/>
+    <x v="3"/>
+    <s v="Nashville"/>
+    <n v="0.5"/>
+    <s v="Tennessee Titans"/>
+    <s v="TEN"/>
+    <s v="Houston Texans"/>
+    <s v="HST"/>
+    <s v="Nissan Stadium"/>
+    <s v="Outdoors"/>
+    <s v="Grass"/>
+    <s v="Sunny"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="585"/>
+    <x v="32"/>
+    <s v="Reg"/>
+    <x v="13"/>
+    <n v="43072"/>
+    <x v="3"/>
+    <s v="Nashville"/>
+    <n v="0.5"/>
+    <s v="Tennessee Titans"/>
+    <s v="TEN"/>
+    <s v="Houston Texans"/>
+    <s v="HST"/>
+    <s v="Nissan Stadium"/>
+    <s v="Outdoors"/>
+    <s v="Grass"/>
+    <s v="Sunny"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="601"/>
+    <x v="33"/>
+    <s v="Reg"/>
+    <x v="8"/>
+    <n v="43079"/>
+    <x v="3"/>
+    <s v="Denver"/>
+    <n v="0.58680555555555558"/>
+    <s v="Denver Broncos"/>
+    <s v="DEN"/>
+    <s v="New York Jets"/>
+    <s v="NYJ"/>
+    <s v="Sports Authority Field at Mile High"/>
+    <s v="Outdoor"/>
+    <s v="Grass"/>
+    <s v="Sunny"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="607"/>
+    <x v="34"/>
+    <s v="Reg"/>
+    <x v="9"/>
+    <n v="43083"/>
+    <x v="0"/>
+    <s v="Indianapolis"/>
+    <n v="0.85069444444444453"/>
+    <s v="Indianapolis Colts"/>
+    <s v="IND"/>
+    <s v="Denver Broncos"/>
+    <s v="DEN"/>
+    <s v="Lucas Oil Stadium"/>
+    <s v="Retr. Roof - Closed"/>
+    <s v="Artificial"/>
+    <s v="Cloudy"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="618"/>
+    <x v="26"/>
+    <s v="Reg"/>
+    <x v="9"/>
+    <n v="43086"/>
+    <x v="3"/>
+    <s v="Seattle"/>
+    <n v="0.54513888888888895"/>
+    <s v="Seattle Seahawks"/>
+    <s v="SEA"/>
+    <s v="Los Angeles Rams"/>
+    <s v="LA"/>
+    <s v="CenturyLink Field"/>
+    <s v="Outdoor"/>
+    <s v="FieldTurf"/>
+    <s v="Cloudy"/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="666">
   <r>
     <n v="1"/>
@@ -25810,7 +26331,134 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Player Activity">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="36">
+        <item x="22"/>
+        <item x="2"/>
+        <item x="33"/>
+        <item x="31"/>
+        <item x="5"/>
+        <item x="34"/>
+        <item x="4"/>
+        <item x="23"/>
+        <item x="3"/>
+        <item x="25"/>
+        <item x="30"/>
+        <item x="16"/>
+        <item x="29"/>
+        <item x="10"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="32"/>
+        <item x="17"/>
+        <item x="6"/>
+        <item x="20"/>
+        <item x="1"/>
+        <item x="18"/>
+        <item x="21"/>
+        <item x="26"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="0"/>
+        <item x="11"/>
+        <item x="24"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="13"/>
+        <item x="19"/>
+        <item x="7"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="11"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of PlayID" fld="1" subtotal="count" baseField="5" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Player Activity">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -25904,8 +26552,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="Other" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="Other" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -25990,8 +26638,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="42" rowHeaderCaption="Primary Impact Type">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="42" rowHeaderCaption="Primary Impact Type">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -26125,8 +26773,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" rowHeaderCaption="Activity">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" rowHeaderCaption="Activity">
   <location ref="A3:F9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0">
@@ -26330,8 +26978,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField dataField="1" showAll="0"/>
@@ -26339,7 +26987,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="47" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
+    <pivotField axis="axisRow" showAll="0">
       <items count="7">
         <item x="5"/>
         <item x="4"/>
@@ -26349,15 +26997,6 @@
         <item x="0"/>
         <item t="default"/>
       </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField numFmtId="20" showAll="0"/>
@@ -26377,22 +27016,22 @@
   </rowFields>
   <rowItems count="7">
     <i>
-      <x v="5"/>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i>
+      <x v="3"/>
+    </i>
+    <i>
       <x v="4"/>
     </i>
     <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="1"/>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -26866,6 +27505,89 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3">
+        <v>666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -64126,317 +64848,124 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A3:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B38"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C9" si="0">VLOOKUP($A4,total_days,B$4,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="D4" s="3">
+        <f>B4/C4*100</f>
+        <v>5.5555555555555554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="3">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" ref="D5:D8" si="1">B5/C5*100</f>
+        <v>11.827956989247312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="1"/>
+        <v>5.2631578947368416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>3129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>21</v>
-      </c>
-      <c r="B3">
-        <v>2587</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>29</v>
-      </c>
-      <c r="B4">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>45</v>
-      </c>
-      <c r="B5">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>54</v>
-      </c>
-      <c r="B6">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>60</v>
-      </c>
-      <c r="B7">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>144</v>
-      </c>
-      <c r="B8">
-        <v>2342</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>149</v>
-      </c>
-      <c r="B9">
-        <v>3663</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>189</v>
-      </c>
-      <c r="B10">
-        <v>3509</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>218</v>
-      </c>
-      <c r="B11">
-        <v>3468</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>231</v>
-      </c>
-      <c r="B12">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>234</v>
-      </c>
-      <c r="B13">
-        <v>3278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>266</v>
-      </c>
-      <c r="B14">
-        <v>2902</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>274</v>
-      </c>
-      <c r="B15">
-        <v>3609</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>280</v>
-      </c>
-      <c r="B16">
-        <v>2918</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>280</v>
-      </c>
-      <c r="B17">
-        <v>3746</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>281</v>
-      </c>
-      <c r="B18">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>289</v>
-      </c>
-      <c r="B19">
-        <v>2341</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>296</v>
-      </c>
-      <c r="B20">
-        <v>2667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>357</v>
-      </c>
-      <c r="B21">
-        <v>3630</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>364</v>
-      </c>
-      <c r="B22">
-        <v>2489</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>364</v>
-      </c>
-      <c r="B23">
-        <v>2764</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>384</v>
-      </c>
-      <c r="B24">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>392</v>
-      </c>
-      <c r="B25">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>397</v>
-      </c>
-      <c r="B26">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>399</v>
-      </c>
-      <c r="B27">
-        <v>3312</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>414</v>
-      </c>
-      <c r="B28">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>448</v>
-      </c>
-      <c r="B29">
-        <v>2792</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>473</v>
-      </c>
-      <c r="B30">
-        <v>2072</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>506</v>
-      </c>
-      <c r="B31">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>553</v>
-      </c>
-      <c r="B32">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>567</v>
-      </c>
-      <c r="B33">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>585</v>
-      </c>
-      <c r="B34">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>585</v>
-      </c>
-      <c r="B35">
-        <v>2208</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>601</v>
-      </c>
-      <c r="B36">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>607</v>
-      </c>
-      <c r="B37">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>618</v>
-      </c>
-      <c r="B38">
-        <v>2792</v>
-      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9365079365079358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="3">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>453</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>3.9735099337748347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>666</v>
+      </c>
+      <c r="D9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -64444,6 +64973,2509 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:R40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>11</v>
+      </c>
+      <c r="L2">
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <v>13</v>
+      </c>
+      <c r="N2">
+        <v>14</v>
+      </c>
+      <c r="O2">
+        <v>15</v>
+      </c>
+      <c r="P2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3129</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:P13" si="0">VLOOKUP($A4,game_data,C$2,FALSE)</f>
+        <v>Pre</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>42593</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>Thursday</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>Chicago</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>Chicago Bears</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>CHI</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>Denver Broncos</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>DEN</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="0"/>
+        <v>Soldier Field</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="0"/>
+        <v>Outdoor</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="0"/>
+        <v>Grass</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="0"/>
+        <v>Partly Cloudy, Chance of Rain 80%</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>2587</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>Pre</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>42602</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>Nashville</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>Tennessee Titans</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>TEN</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>Carolina Panthers</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>CAR</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="0"/>
+        <v>Nissan Stadium</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="0"/>
+        <v>Outdoors</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="0"/>
+        <v>Grass</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="0"/>
+        <v>Cloudy</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>538</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>Pre</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>42601</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>Landover</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.8125</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>Washington Redskins</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>WAS</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>New York Jets</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v>NYJ</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="0"/>
+        <v>FedExField</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="0"/>
+        <v>Outside</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="0"/>
+        <v>Grass</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunny</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>1212</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>Pre</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>42609</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>East Rutherford</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.8125</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>New York Jets</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>NYJ</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>New York Giants</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>NYG</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="0"/>
+        <v>MetLife</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="0"/>
+        <v>Outdoor</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="0"/>
+        <v>FieldTurf</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="0"/>
+        <v>Clear</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <v>1045</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>Pre</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>42614</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>Thursday</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>Charlotte</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.8125</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>Carolina Panthers</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>CAR</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>Pittsburgh Steelers</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v>PIT</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="0"/>
+        <v>Bank of America Stadium</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Outdoors </v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Natural Grass </v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="0"/>
+        <v>Cloudy</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>905</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>Pre</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>42614</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>Thursday</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>Detroit</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.8125</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>Detroit Lions</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>DET</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>Buffalo Bills</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v>BUF</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="0"/>
+        <v>Ford Field</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="0"/>
+        <v>Indoors</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="0"/>
+        <v>Field Turf</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="0"/>
+        <v>Controlled Climate</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>144</v>
+      </c>
+      <c r="B10">
+        <v>2342</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>Reg</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>42659</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>Orchard Park</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>Buffalo Bills</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>BUF</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>San Francisco 49ers</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v>SF</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="0"/>
+        <v>New Era Field</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="0"/>
+        <v>Outdoors</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="0"/>
+        <v>A-Turf Titan</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="0"/>
+        <v>Mostly cloudy</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>149</v>
+      </c>
+      <c r="B11">
+        <v>3663</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>Reg</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>42659</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>New Orleans</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>New Orleans Saints</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>NO</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v>Carolina Panthers</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>CAR</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="0"/>
+        <v>Mercedes-Benz Superdome</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="0"/>
+        <v>Indoors</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="0"/>
+        <v>UBU Speed Series-S5-M</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="0"/>
+        <v>Partly Cloudy</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>189</v>
+      </c>
+      <c r="B12">
+        <v>3509</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>Reg</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>42680</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>Kansas City</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>Kansas City Chiefs</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>KC</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>Jacksonville Jaguars</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>JAX</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="0"/>
+        <v>Arrowhead Stadium</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="0"/>
+        <v>Outdoor</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="0"/>
+        <v>Natural Grass</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>218</v>
+      </c>
+      <c r="B13">
+        <v>3468</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>Reg</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>42694</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>Indianapolis</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>Indianapolis Colts</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>IND</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>Tennessee Titans</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>TEN</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="0"/>
+        <v>Lucas Oil</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="0"/>
+        <v>Retr. Roof - Closed</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="0"/>
+        <v>Artificial</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="0"/>
+        <v>Partly Cloudy</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>231</v>
+      </c>
+      <c r="B14">
+        <v>1976</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" ref="C14:P23" si="1">VLOOKUP($A14,game_data,C$2,FALSE)</f>
+        <v>Reg</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>42701</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunday</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>Baltimore</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>Baltimore Ravens</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="1"/>
+        <v>BLT</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="1"/>
+        <v>Cincinnati Bengals</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v>CIN</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="1"/>
+        <v>M&amp;T Bank Stadium</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="1"/>
+        <v>Outdoor</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="1"/>
+        <v>Natural Grass</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunny</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>234</v>
+      </c>
+      <c r="B15">
+        <v>3278</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>Reg</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>42701</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunday</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>Cleveland</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>Cleveland Browns</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="1"/>
+        <v>CLV</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="1"/>
+        <v>New York Giants</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v>NYG</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="1"/>
+        <v>FirstEnergy Stadium</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="1"/>
+        <v>Outdoor</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="1"/>
+        <v>Grass</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunny</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>266</v>
+      </c>
+      <c r="B16">
+        <v>2902</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>Reg</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>42715</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunday</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>Philadelphia</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>Philadelphia Eagles</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="1"/>
+        <v>PHI</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="1"/>
+        <v>Washington Redskins</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v>WAS</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="1"/>
+        <v>Lincoln Financial Field</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="1"/>
+        <v>Outdoor</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="1"/>
+        <v>Grass</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="1"/>
+        <v>Cloudy</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>274</v>
+      </c>
+      <c r="B17">
+        <v>3609</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>Reg</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>42719</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>Thursday</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>Seattle</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>Seattle Seahawks</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="1"/>
+        <v>SEA</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="1"/>
+        <v>Los Angeles Rams</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v>LA</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="1"/>
+        <v>CenturyLink Field</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="1"/>
+        <v>Outdoor</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="1"/>
+        <v>FieldTurf</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="1"/>
+        <v>Partly cloudy</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>280</v>
+      </c>
+      <c r="B18">
+        <v>2918</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>Reg</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>42722</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunday</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>Houston</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>Houston Texans</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="1"/>
+        <v>HST</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="1"/>
+        <v>Jacksonville Jaguars</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v>JAX</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="1"/>
+        <v>NRG Stadium</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="1"/>
+        <v>Retractable Roof</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="1"/>
+        <v>Artificial</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="1"/>
+        <v>Cloudy</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>280</v>
+      </c>
+      <c r="B19">
+        <v>3746</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>Reg</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>42722</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunday</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>Houston</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="1"/>
+        <v>Houston Texans</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="1"/>
+        <v>HST</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="1"/>
+        <v>Jacksonville Jaguars</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v>JAX</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="1"/>
+        <v>NRG Stadium</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="1"/>
+        <v>Retractable Roof</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="1"/>
+        <v>Artificial</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="1"/>
+        <v>Cloudy</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>281</v>
+      </c>
+      <c r="B20">
+        <v>1526</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>Reg</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>42722</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunday</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>Kansas City</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="1"/>
+        <v>Kansas City Chiefs</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="1"/>
+        <v>KC</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="1"/>
+        <v>Tennessee Titans</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v>TEN</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="1"/>
+        <v>Arrowhead Stadium</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="1"/>
+        <v>Outdoor</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="1"/>
+        <v>Natural Grass</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunny</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>289</v>
+      </c>
+      <c r="B21">
+        <v>2341</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>Reg</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>42723</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>Landover</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="1"/>
+        <v>Washington Redskins</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="1"/>
+        <v>WAS</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="1"/>
+        <v>Carolina Panthers</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v>CAR</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="1"/>
+        <v>FedExField</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="1"/>
+        <v>Outdoor</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="1"/>
+        <v>Grass</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="1"/>
+        <v>Clear</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>296</v>
+      </c>
+      <c r="B22">
+        <v>2667</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>Reg</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>42728</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>Saturday</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>Jacksonville</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="1"/>
+        <v>Jacksonville Jaguars</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="1"/>
+        <v>JAX</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="1"/>
+        <v>Tennessee Titans</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v>TEN</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="1"/>
+        <v>EverBank Field</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="1"/>
+        <v>Open</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="1"/>
+        <v>Grass</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>357</v>
+      </c>
+      <c r="B23">
+        <v>3630</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>Pre</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>42964</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>Thursday</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>Miami Gardens</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="1"/>
+        <v>Miami Dolphins</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="1"/>
+        <v>MIA</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="1"/>
+        <v>Baltimore Ravens</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v>BLT</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="1"/>
+        <v>Hard Rock Stadium</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="1"/>
+        <v>Outdoor</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="1"/>
+        <v>Natural Grass</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="1"/>
+        <v>Partly Cloudy</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>364</v>
+      </c>
+      <c r="B24">
+        <v>2489</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" ref="C24:P33" si="2">VLOOKUP($A24,game_data,C$2,FALSE)</f>
+        <v>Pre</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>42966</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="2"/>
+        <v>Saturday</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>Landover</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>0.8125</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="2"/>
+        <v>Washington Redskins</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="2"/>
+        <v>WAS</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="2"/>
+        <v>Green Bay Packers</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="2"/>
+        <v>GB</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="2"/>
+        <v>FedExField</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="2"/>
+        <v>Outdoors</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="2"/>
+        <v>Grass</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="2"/>
+        <v>Sunny</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>364</v>
+      </c>
+      <c r="B25">
+        <v>2764</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="2"/>
+        <v>Pre</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>42966</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="2"/>
+        <v>Saturday</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>Landover</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>0.8125</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="2"/>
+        <v>Washington Redskins</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="2"/>
+        <v>WAS</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="2"/>
+        <v>Green Bay Packers</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="2"/>
+        <v>GB</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="2"/>
+        <v>FedExField</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="2"/>
+        <v>Outdoors</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="2"/>
+        <v>Grass</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="2"/>
+        <v>Sunny</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>384</v>
+      </c>
+      <c r="B26">
+        <v>183</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="2"/>
+        <v>Pre</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>42978</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="2"/>
+        <v>Thursday</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>Atlanta</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="2"/>
+        <v>Atlanta Falcons</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="2"/>
+        <v>ATL</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="2"/>
+        <v>Jacksonville Jaguars</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="2"/>
+        <v>JAX</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="2"/>
+        <v>Mercedes-Benz Stadium</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="2"/>
+        <v>Dome</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="2"/>
+        <v>FieldTurf 360</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="2"/>
+        <v>Clear</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>392</v>
+      </c>
+      <c r="B27">
+        <v>1088</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="2"/>
+        <v>Pre</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>42978</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="2"/>
+        <v>Thursday</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v>Kansas City</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>0.8125</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="2"/>
+        <v>Kansas City Chiefs</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="2"/>
+        <v>KC</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="2"/>
+        <v>Tennessee Titans</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="2"/>
+        <v>TEN</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="2"/>
+        <v>Arrowhead Stadium</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="2"/>
+        <v>Outdoor</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="2"/>
+        <v>Natural Grass</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="2"/>
+        <v>Sunny</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>397</v>
+      </c>
+      <c r="B28">
+        <v>1526</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="2"/>
+        <v>Pre</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>42978</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="2"/>
+        <v>Thursday</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>Santa Clara</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="2"/>
+        <v>San Francisco 49ers</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="2"/>
+        <v>SF</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="2"/>
+        <v>Los Angeles Chargers</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="2"/>
+        <v>LAC</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="2"/>
+        <v>Levis Stadium</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="2"/>
+        <v>Outdoor</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="2"/>
+        <v>Natural grass</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="2"/>
+        <v>CLEAR</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>399</v>
+      </c>
+      <c r="B29">
+        <v>3312</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="2"/>
+        <v>Reg</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>42985</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="2"/>
+        <v>Thursday</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v>Foxborough</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="2"/>
+        <v>New England Patriots</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="2"/>
+        <v>NE</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="2"/>
+        <v>Kansas City Chiefs</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="2"/>
+        <v>KC</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="2"/>
+        <v>Gillette Stadium</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="2"/>
+        <v>Outdoor</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="2"/>
+        <v>Field Turf</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="2"/>
+        <v>Clear and warm</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>414</v>
+      </c>
+      <c r="B30">
+        <v>1262</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="2"/>
+        <v>Reg</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>42989</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="2"/>
+        <v>Monday</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>Denver</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="2"/>
+        <v>Denver Broncos</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="2"/>
+        <v>DEN</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="2"/>
+        <v>Los Angeles Chargers</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="2"/>
+        <v>LAC</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="2"/>
+        <v>Sports Authority Field at Mile High</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="2"/>
+        <v>Outdoor</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="2"/>
+        <v>Grass</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="2"/>
+        <v>Mostly Cloudy</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>448</v>
+      </c>
+      <c r="B31">
+        <v>2792</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="2"/>
+        <v>Reg</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>43009</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="2"/>
+        <v>Sunday</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v>Wembley</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="2"/>
+        <v>Miami Dolphins</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="2"/>
+        <v>MIA</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="2"/>
+        <v>New Orleans Saints</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="2"/>
+        <v>NO</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="2"/>
+        <v>Wembley Stadium</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="2"/>
+        <v>Outdoor</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="2"/>
+        <v>Grass</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>473</v>
+      </c>
+      <c r="B32">
+        <v>2072</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="2"/>
+        <v>Reg</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>43016</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="2"/>
+        <v>Sunday</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v>Oakland</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="2"/>
+        <v>Oakland Raiders</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="2"/>
+        <v>OAK</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="2"/>
+        <v>Baltimore Ravens</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="2"/>
+        <v>BLT</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="2"/>
+        <v>Oakland-Alameda County Coliseum</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="2"/>
+        <v>Outdoor</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="2"/>
+        <v>Natural Grass</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="2"/>
+        <v>Sunny</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>506</v>
+      </c>
+      <c r="B33">
+        <v>1988</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="2"/>
+        <v>Reg</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>43034</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="2"/>
+        <v>Thursday</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="2"/>
+        <v>Baltimore</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>0.85069444444444453</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="2"/>
+        <v>Baltimore Ravens</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="2"/>
+        <v>BLT</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="2"/>
+        <v>Miami Dolphins</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="2"/>
+        <v>MIA</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="2"/>
+        <v>M&amp;T Bank Stadium</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="2"/>
+        <v>Outdoor</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="2"/>
+        <v>Natural Grass</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="2"/>
+        <v>Partly Cloudy</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>553</v>
+      </c>
+      <c r="B34">
+        <v>1683</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" ref="C34:P40" si="3">VLOOKUP($A34,game_data,C$2,FALSE)</f>
+        <v>Reg</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>43058</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="3"/>
+        <v>Sunday</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="3"/>
+        <v>East Rutherford</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="3"/>
+        <v>New York Giants</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="3"/>
+        <v>NYG</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="3"/>
+        <v>Kansas City Chiefs</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="3"/>
+        <v>KC</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="3"/>
+        <v>MetLife Stadium</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="3"/>
+        <v>UBU Speed Series-S5-M</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="3"/>
+        <v>Mostly Cloudy</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>567</v>
+      </c>
+      <c r="B35">
+        <v>1407</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="3"/>
+        <v>Reg</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>43065</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="3"/>
+        <v>Sunday</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="3"/>
+        <v>East Rutherford</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="3"/>
+        <v>New York Jets</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="3"/>
+        <v>NYJ</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="3"/>
+        <v>Carolina Panthers</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="3"/>
+        <v>CAR</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="3"/>
+        <v>MetLife</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="3"/>
+        <v>Outdoor</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="3"/>
+        <v>FieldTurf</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="3"/>
+        <v>Sunny</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>585</v>
+      </c>
+      <c r="B36">
+        <v>733</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="3"/>
+        <v>Reg</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>43072</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="3"/>
+        <v>Sunday</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="3"/>
+        <v>Nashville</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="3"/>
+        <v>Tennessee Titans</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="3"/>
+        <v>TEN</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="3"/>
+        <v>Houston Texans</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="3"/>
+        <v>HST</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="3"/>
+        <v>Nissan Stadium</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="3"/>
+        <v>Outdoors</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="3"/>
+        <v>Grass</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="3"/>
+        <v>Sunny</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>585</v>
+      </c>
+      <c r="B37">
+        <v>2208</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="3"/>
+        <v>Reg</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>43072</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="3"/>
+        <v>Sunday</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="3"/>
+        <v>Nashville</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="3"/>
+        <v>Tennessee Titans</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="3"/>
+        <v>TEN</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="3"/>
+        <v>Houston Texans</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="3"/>
+        <v>HST</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="3"/>
+        <v>Nissan Stadium</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="3"/>
+        <v>Outdoors</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="3"/>
+        <v>Grass</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="3"/>
+        <v>Sunny</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>601</v>
+      </c>
+      <c r="B38">
+        <v>602</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="3"/>
+        <v>Reg</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>43079</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="3"/>
+        <v>Sunday</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="3"/>
+        <v>Denver</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="3"/>
+        <v>Denver Broncos</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="3"/>
+        <v>DEN</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="3"/>
+        <v>New York Jets</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="3"/>
+        <v>NYJ</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="3"/>
+        <v>Sports Authority Field at Mile High</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="3"/>
+        <v>Outdoor</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="3"/>
+        <v>Grass</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="3"/>
+        <v>Sunny</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>607</v>
+      </c>
+      <c r="B39">
+        <v>978</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="3"/>
+        <v>Reg</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>43083</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="3"/>
+        <v>Thursday</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="3"/>
+        <v>Indianapolis</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>0.85069444444444453</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="3"/>
+        <v>Indianapolis Colts</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="3"/>
+        <v>IND</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="3"/>
+        <v>Denver Broncos</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="3"/>
+        <v>DEN</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="3"/>
+        <v>Lucas Oil Stadium</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="3"/>
+        <v>Retr. Roof - Closed</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="3"/>
+        <v>Artificial</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" si="3"/>
+        <v>Cloudy</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>618</v>
+      </c>
+      <c r="B40">
+        <v>2792</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="3"/>
+        <v>Reg</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>43086</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="3"/>
+        <v>Sunday</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="3"/>
+        <v>Seattle</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="3"/>
+        <v>Seattle Seahawks</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="3"/>
+        <v>SEA</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="3"/>
+        <v>Los Angeles Rams</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="3"/>
+        <v>LA</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="3"/>
+        <v>CenturyLink Field</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="3"/>
+        <v>Outdoor</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="3"/>
+        <v>FieldTurf</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="3"/>
+        <v>Cloudy</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B8"/>
   <sheetViews>
@@ -64511,7 +67543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B10"/>
   <sheetViews>
@@ -64595,7 +67627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B8"/>
   <sheetViews>
@@ -64670,7 +67702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:P9"/>
   <sheetViews>
@@ -64849,88 +67881,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B10"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="3">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="3">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B7" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="3">
-        <v>666</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/EDA_NFL_Punt_Analytics.xlsx
+++ b/EDA_NFL_Punt_Analytics.xlsx
@@ -1517,9 +1517,6 @@
     <t>Days</t>
   </si>
   <si>
-    <t>Number of games</t>
-  </si>
-  <si>
     <t>Total number of games</t>
   </si>
   <si>
@@ -1530,6 +1527,9 @@
   </si>
   <si>
     <t>Partner Activity</t>
+  </si>
+  <si>
+    <t>Number of Concussive Games</t>
   </si>
 </sst>
 </file>
@@ -1611,6 +1611,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF1D1D"/>
+      <color rgb="FFFF0505"/>
+      <color rgb="FFC40000"/>
+      <color rgb="FFEA4444"/>
+      <color rgb="FFFF6D6D"/>
+      <color rgb="FFE20000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -11200,8 +11210,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Primary_Impact_Type"/>
@@ -11218,7 +11228,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -11336,8 +11346,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="Season_Year"/>
@@ -11354,7 +11364,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -11483,7 +11493,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-IN" sz="1400"/>
-            <a:t>Note: We can see that Concussions are more likely to happen on a Thursday.</a:t>
+            <a:t>Note: We can see that Concussions are more likely to happen on a Thursday than that on a Sunday.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -27369,6 +27379,42 @@
   <dataFields count="1">
     <dataField name="Number of Plays" fld="2" subtotal="count" baseField="4" baseItem="0"/>
   </dataFields>
+  <conditionalFormats count="2">
+    <conditionalFormat priority="2">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="4" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="4" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
   <chartFormats count="8">
     <chartFormat chart="12" format="32" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
@@ -27617,9 +27663,12 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D8" totalsRowShown="0">
   <autoFilter ref="A1:D8"/>
+  <sortState ref="A2:D8">
+    <sortCondition descending="1" ref="D1:D8"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="Days"/>
-    <tableColumn id="2" name="Number of games"/>
+    <tableColumn id="2" name="Number of Concussive Games"/>
     <tableColumn id="3" name="Total number of games"/>
     <tableColumn id="4" name="Concussion rate (%)"/>
   </tableColumns>
@@ -28023,8 +28072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28039,7 +28088,7 @@
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>37</v>
@@ -28186,6 +28235,26 @@
       <c r="P9" s="3"/>
     </row>
   </sheetData>
+  <conditionalFormatting pivot="1" sqref="F5:F8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="B9:E9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <color theme="5" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -65665,15 +65734,15 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -65681,69 +65750,69 @@
         <v>470</v>
       </c>
       <c r="B1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C1" t="s">
         <v>471</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>472</v>
-      </c>
-      <c r="D1" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>74</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="D2">
-        <v>5.5555555555555554</v>
+        <v>11.827956989247312</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="D3">
-        <v>11.827956989247312</v>
+        <v>7.9365079365079358</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>266</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>5.2631578947368416</v>
+        <v>5.5555555555555554</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>7.9365079365079358</v>
+        <v>5.2631578947368416</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -65775,6 +65844,16 @@
       <c r="A8" s="8"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D6">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -68292,7 +68371,7 @@
   <dimension ref="A3:Y8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -68306,7 +68385,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
@@ -68371,6 +68450,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A4:B7">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -68381,7 +68470,7 @@
   <dimension ref="A3:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -68392,10 +68481,10 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -68455,6 +68544,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A4:B9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -68465,7 +68564,7 @@
   <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -68486,7 +68585,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -68530,6 +68629,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A4:B7">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/EDA_NFL_Punt_Analytics.xlsx
+++ b/EDA_NFL_Punt_Analytics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1536,7 +1536,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1558,8 +1558,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1578,6 +1585,17 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6D6D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1588,10 +1606,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1605,19 +1624,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Accent5" xfId="1" builtinId="45"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF93333"/>
+      <color rgb="FFFF6D6D"/>
+      <color rgb="FFFF8F8F"/>
+      <color rgb="FFF92323"/>
       <color rgb="FFFF1D1D"/>
       <color rgb="FFFF0505"/>
       <color rgb="FFC40000"/>
       <color rgb="FFEA4444"/>
-      <color rgb="FFFF6D6D"/>
       <color rgb="FFE20000"/>
     </mruColors>
   </colors>
@@ -11303,16 +11343,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27243,6 +27283,25 @@
   <dataFields count="1">
     <dataField name="Number of Plays" fld="2" subtotal="count" baseField="0" baseItem="416774208"/>
   </dataFields>
+  <conditionalFormats count="1">
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
   <chartFormats count="3">
     <chartFormat chart="40" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
@@ -27379,15 +27438,23 @@
   <dataFields count="1">
     <dataField name="Number of Plays" fld="2" subtotal="count" baseField="4" baseItem="0"/>
   </dataFields>
+  <formats count="2">
+    <format dxfId="1">
+      <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
   <conditionalFormats count="2">
-    <conditionalFormat priority="2">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <pivotArea type="data" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="4" count="4">
+            <reference field="6" count="4" selected="0">
               <x v="0"/>
               <x v="1"/>
               <x v="2"/>
@@ -27397,14 +27464,14 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="2">
       <pivotAreas count="1">
-        <pivotArea type="data" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="6" count="4" selected="0">
+            <reference field="4" count="4">
               <x v="0"/>
               <x v="1"/>
               <x v="2"/>
@@ -28224,7 +28291,7 @@
       <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="12">
         <v>37</v>
       </c>
       <c r="K9" s="2"/>
@@ -64363,7 +64430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -65733,8 +65800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65830,15 +65897,16 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="11">
         <v>37</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="11">
         <v>666</v>
       </c>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -68563,8 +68631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A14" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -68629,13 +68697,13 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:B7">
+  <conditionalFormatting pivot="1" sqref="B4:B7">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
+        <color rgb="FFFF8F8F"/>
+        <color rgb="FFF93333"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
